--- a/src/main/resources/excel/halo_Infinite.xlsx
+++ b/src/main/resources/excel/halo_Infinite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="18"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lumu2" sheetId="1" state="visible" r:id="rId2"/>
@@ -502,10 +502,10 @@
     <t xml:space="preserve">Devastador</t>
   </si>
   <si>
-    <t xml:space="preserve">CQS48 Bulldog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buldog CQS48</t>
+    <t xml:space="preserve">Bulldog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buldog</t>
   </si>
   <si>
     <t xml:space="preserve">Disruptor</t>
@@ -532,16 +532,16 @@
     <t xml:space="preserve">Hidra</t>
   </si>
   <si>
-    <t xml:space="preserve">M41 SPNKr</t>
+    <t xml:space="preserve">SPNKr</t>
   </si>
   <si>
     <t xml:space="preserve">MA40 AR</t>
   </si>
   <si>
-    <t xml:space="preserve">Mk50 Sidekick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compañero Mk50</t>
+    <t xml:space="preserve">Sidekick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compañero</t>
   </si>
   <si>
     <t xml:space="preserve">Needler</t>
@@ -1596,7 +1596,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1740,7 +1740,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1780,7 +1780,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.97"/>
@@ -1936,7 +1936,7 @@
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1984,7 +1984,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.39"/>
@@ -2144,7 +2144,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2240,7 +2240,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.38"/>
@@ -2424,7 +2424,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2488,7 +2488,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.61"/>
@@ -2656,7 +2656,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.57"/>
@@ -2792,11 +2792,11 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2852,7 +2852,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.32"/>
@@ -3376,7 +3376,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3520,7 +3520,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3664,7 +3664,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3808,7 +3808,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3952,7 +3952,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4096,7 +4096,7 @@
       <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.74"/>
@@ -4180,7 +4180,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -4252,11 +4252,11 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.01"/>
@@ -4428,7 +4428,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4508,7 +4508,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.87"/>

--- a/src/main/resources/excel/halo_Infinite.xlsx
+++ b/src/main/resources/excel/halo_Infinite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Lumu2" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="482">
   <si>
     <t xml:space="preserve">the flag is ours. Now it must be carried home</t>
   </si>
@@ -1154,9 +1154,6 @@
   </si>
   <si>
     <t xml:space="preserve">patio azul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bottom mind</t>
   </si>
   <si>
     <t xml:space="preserve">mente inferior</t>
@@ -1596,7 +1593,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1740,7 +1737,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1780,7 +1777,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.97"/>
@@ -1936,7 +1933,7 @@
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1984,7 +1981,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.39"/>
@@ -2144,7 +2141,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2240,7 +2237,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.38"/>
@@ -2424,7 +2421,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2488,7 +2485,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.61"/>
@@ -2652,11 +2649,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.57"/>
@@ -2720,58 +2717,58 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2796,38 +2793,38 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2849,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.32"/>
@@ -3376,126 +3373,126 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -3520,126 +3517,126 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>437</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3664,126 +3661,126 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>471</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>477</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3808,7 +3805,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3952,7 +3949,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4096,7 +4093,7 @@
       <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.74"/>
@@ -4180,7 +4177,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -4252,11 +4249,11 @@
   </sheetPr>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.01"/>
@@ -4428,7 +4425,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4508,7 +4505,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.87"/>

--- a/src/main/resources/excel/halo_Infinite.xlsx
+++ b/src/main/resources/excel/halo_Infinite.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lumu2" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="480">
   <si>
     <t xml:space="preserve">the flag is ours. Now it must be carried home</t>
   </si>
@@ -530,12 +530,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hidra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPNKr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA40 AR</t>
   </si>
   <si>
     <t xml:space="preserve">Sidekick</t>
@@ -1593,7 +1587,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1737,22 +1731,22 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1777,7 +1771,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.97"/>
@@ -1785,122 +1779,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,30 +1927,30 @@
       <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +1975,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.39"/>
@@ -1989,122 +1983,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2141,78 +2135,78 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2237,7 +2231,7 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.38"/>
@@ -2245,122 +2239,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,46 +2415,46 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2479,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="67.61"/>
@@ -2493,122 +2487,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,11 +2643,11 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.57"/>
@@ -2661,114 +2655,114 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2793,38 +2787,38 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2843,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.32"/>
@@ -3373,126 +3367,126 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3517,126 +3511,126 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3661,126 +3655,126 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3799,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3949,7 +3943,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4093,7 +4087,7 @@
       <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.74"/>
@@ -4177,7 +4171,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -4247,13 +4241,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.01"/>
@@ -4344,40 +4338,32 @@
         <v>163</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -4394,14 +4380,6 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0"/>
-      <c r="B20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4425,62 +4403,62 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4505,7 +4483,7 @@
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.87"/>
@@ -4513,122 +4491,122 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
